--- a/ExperimentalResult/Times.xlsx
+++ b/ExperimentalResult/Times.xlsx
@@ -125,6 +125,311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FleischerWayne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37837</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>893107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310175</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>186694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65765</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="56466816"/>
+        <c:axId val="68691072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56466816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68691072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68691072"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56466816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8318008311879389"/>
+          <c:y val="0.43957242186831902"/>
+          <c:w val="0.15315450719404325"/>
+          <c:h val="0.12085489313835771"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B52" sqref="B32:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,6 +1521,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ExperimentalResult/Times.xlsx
+++ b/ExperimentalResult/Times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="21555" windowHeight="15030"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="21552" windowHeight="14616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FW / Greedy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>計算時間 [ms] (小さいほどよい)</t>
     <rPh sb="0" eb="4">
       <t>ケイサンジカン</t>
@@ -45,6 +41,10 @@
     <rPh sb="11" eb="12">
       <t>チイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Greedy / FW</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -333,11 +333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="56466816"/>
-        <c:axId val="68691072"/>
+        <c:axId val="207731712"/>
+        <c:axId val="208942592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56466816"/>
+        <c:axId val="207731712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68691072"/>
+        <c:crossAx val="208942592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68691072"/>
+        <c:axId val="208942592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -366,7 +366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56466816"/>
+        <c:crossAx val="207731712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,19 +722,19 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B52" sqref="B32:C52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -762,8 +762,8 @@
         <v>79</v>
       </c>
       <c r="D3">
-        <f>B3 / C3</f>
-        <v>360.25316455696202</v>
+        <f>C3 / B3</f>
+        <v>2.7758257203092059E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,8 +777,8 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D52" si="0">B4 / C4</f>
-        <v>574.26530612244903</v>
+        <f t="shared" ref="D4:D52" si="0">C4 / B4</f>
+        <v>1.7413554141938235E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>415.98913043478262</v>
+        <v>2.4039089650126728E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -808,7 +808,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>539.07142857142856</v>
+        <v>1.855041738439115E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -823,7 +823,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -838,7 +838,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>436.3167259786477</v>
+        <v>2.2919130541168794E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -853,7 +853,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>406.25675675675677</v>
+        <v>2.461497521870738E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>417.38333333333333</v>
+        <v>2.395879087968694E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -883,7 +883,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -898,7 +898,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -913,7 +913,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>408.95454545454544</v>
+        <v>2.4452595309547628E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -928,7 +928,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>441.40506329113924</v>
+        <v>2.2654928163803735E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,7 +943,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>514.28301886792451</v>
+        <v>1.9444546355064753E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -958,7 +958,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>339.17117117117118</v>
+        <v>2.9483637909052274E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -973,7 +973,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>450.24590163934425</v>
+        <v>2.2210085563444384E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>420.80219780219778</v>
+        <v>2.3764134437103388E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>428.24</v>
+        <v>2.3351391742947878E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>372.81415929203541</v>
+        <v>2.6823015571591341E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>821.25925925925924</v>
+        <v>1.2176422837557499E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>427.66363636363639</v>
+        <v>2.3382862487511427E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>410.59677419354841</v>
+        <v>2.4354794359115373E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>868.4</v>
+        <v>1.1515430677107323E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>386.70588235294116</v>
+        <v>2.5859446303620323E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>491.10909090909092</v>
+        <v>2.036207471030321E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>758</v>
+        <v>1.3192612137203166E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>416.26249999999999</v>
+        <v>2.4023302603525419E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>769.91666666666663</v>
+        <v>1.2988418660028142E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>417.44444444444446</v>
+        <v>2.3955283470854403E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>793.84504792332268</v>
+        <v>1.2596916773820951E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>428.94736842105266</v>
+        <v>2.331288343558282E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>766.89655172413791</v>
+        <v>1.3039568345323742E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>408.83908045977012</v>
+        <v>2.4459501251089433E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>435.14285714285717</v>
+        <v>2.2980958634274459E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>899.66666666666663</v>
+        <v>1.1115227862171174E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>576.60377358490564</v>
+        <v>1.7342931937172775E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>843.66666666666663</v>
+        <v>1.185302252074279E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>421.507614213198</v>
+        <v>2.3724363837807241E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>395.93069306930693</v>
+        <v>2.5256945660056514E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>683.75862068965512</v>
+        <v>1.4625044127288315E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>423.69565217391306</v>
+        <v>2.3601847101077478E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>1166.8</v>
+        <v>8.5704490915323962E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>338.04444444444442</v>
+        <v>2.9581909019195372E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>434.90804597701151</v>
+        <v>2.2993366281681953E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>385.0141509433962</v>
+        <v>2.597307131568308E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>620.98540145985396</v>
+        <v>1.6103438142815163E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>587.9572086899276</v>
+        <v>1.7008040469954889E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>602.28155339805824</v>
+        <v>1.6603530265172886E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>463.2605459057072</v>
+        <v>2.158612488885556E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>487.14814814814815</v>
+        <v>2.0527636280696419E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>348.05660377358492</v>
+        <v>2.8730958963517103E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D53" s="3">
         <f>AVERAGE(D3:D52)</f>
-        <v>496.40533705875782</v>
+        <v>1.6806816726190863E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,7 +1544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
